--- a/tables/random_sd_PhenTempBirds.xlsx
+++ b/tables/random_sd_PhenTempBirds.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Relation</t>
   </si>
@@ -26,70 +26,64 @@
     <t xml:space="preserve">Location.SD</t>
   </si>
   <si>
+    <t xml:space="preserve">GR&lt;-Pop_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.640689e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.352278e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.948554e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR&lt;-Trait_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.390531e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.982369e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.057394e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trait_mean&lt;-det_Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.586625e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.039911e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.806780e-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">GR&lt;-det_Clim</t>
   </si>
   <si>
-    <t xml:space="preserve">7.858908e-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.429485e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.102338e-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR&lt;-Pop_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.640689e-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.352278e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.948554e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR&lt;-Trait_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.390531e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.982369e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.057394e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait_mean&lt;-det_Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.586625e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.039911e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.806780e-01</t>
+    <t xml:space="preserve">9.806033e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.411436e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.796021e-03</t>
   </si>
   <si>
     <t xml:space="preserve">Ind_GR&lt;-det_Clim</t>
   </si>
   <si>
-    <t xml:space="preserve">3.396813e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.227800e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.399731e-15</t>
+    <t xml:space="preserve">4.587966e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000e+00</t>
   </si>
   <si>
     <t xml:space="preserve">Tot_GR&lt;-det_Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000e+00</t>
   </si>
 </sst>
 </file>
@@ -568,7 +562,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -579,16 +573,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
